--- a/Documents/qPCR_Setup_Files/Plate setup template for 1step qPCR.xlsx
+++ b/Documents/qPCR_Setup_Files/Plate setup template for 1step qPCR.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27417"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillipburnham/Dissertation/Documents/qPCR_Setup_Files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="25520" windowHeight="14960" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26340" windowHeight="15860" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Plate set-up" sheetId="6" r:id="rId1"/>
@@ -16,9 +21,13 @@
     <sheet name="Sheet4 (4)" sheetId="21" r:id="rId7"/>
     <sheet name="Sheet4 (5)" sheetId="23" r:id="rId8"/>
     <sheet name="Sheet4 (6)" sheetId="24" r:id="rId9"/>
+    <sheet name="PCR usdaPlate" sheetId="25" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="89">
   <si>
     <t>DWV</t>
   </si>
@@ -606,6 +615,12 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>G-block</t>
   </si>
 </sst>
 </file>
@@ -1258,9 +1273,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1269,6 +1281,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="245">
@@ -1821,7 +1836,7 @@
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="8.6640625" style="1"/>
@@ -1838,7 +1853,7 @@
     <col min="24" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6">
         <v>1</v>
@@ -1901,7 +1916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="31.5" customHeight="1">
+    <row r="2" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1954,7 +1969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="31.5" customHeight="1">
+    <row r="3" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2008,7 +2023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="31.5" customHeight="1">
+    <row r="4" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -2054,7 +2069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="31.5" customHeight="1">
+    <row r="5" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -2106,7 +2121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="31.5" customHeight="1">
+    <row r="6" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -2159,7 +2174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="31.5" customHeight="1">
+    <row r="7" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2212,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="31.5" customHeight="1">
+    <row r="8" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -2265,7 +2280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="31.5" customHeight="1">
+    <row r="9" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -2318,7 +2333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="31.5" customHeight="1">
+    <row r="10" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="2"/>
@@ -2336,27 +2351,558 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="20" s="1" customFormat="1"/>
-    <row r="21" s="1" customFormat="1"/>
-    <row r="22" s="1" customFormat="1"/>
-    <row r="23" s="1" customFormat="1"/>
-    <row r="24" s="1" customFormat="1"/>
-    <row r="25" s="1" customFormat="1"/>
-    <row r="26" s="1" customFormat="1"/>
-    <row r="27" s="1" customFormat="1"/>
-    <row r="28" s="1" customFormat="1"/>
-    <row r="29" s="1" customFormat="1"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="1"/>
+    <col min="16" max="16" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="1"/>
+    <col min="19" max="19" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="1"/>
+    <col min="21" max="21" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="1"/>
+    <col min="23" max="23" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="68"/>
+      <c r="B1" s="59">
+        <v>1</v>
+      </c>
+      <c r="C1" s="59">
+        <v>2</v>
+      </c>
+      <c r="D1" s="59">
+        <v>3</v>
+      </c>
+      <c r="E1" s="59">
+        <v>4</v>
+      </c>
+      <c r="F1" s="59">
+        <v>5</v>
+      </c>
+      <c r="G1" s="59">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6">
+        <v>10</v>
+      </c>
+      <c r="L1" s="62">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="35"/>
+      <c r="S1" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="35"/>
+      <c r="U1" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="35"/>
+      <c r="W1" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="31">
+        <v>21300000000</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="29">
+        <v>213000000</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="29">
+        <v>213000</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="29">
+        <v>213</v>
+      </c>
+      <c r="X2" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="31">
+        <v>38500000000</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="29">
+        <v>38500000</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="29">
+        <v>385000</v>
+      </c>
+      <c r="V3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="29">
+        <v>3850</v>
+      </c>
+      <c r="X3" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="38"/>
+      <c r="T4" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="38"/>
+      <c r="V4" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="38"/>
+      <c r="X4" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="31">
+        <v>16600000000</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="29">
+        <v>16600000</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="29">
+        <v>16600</v>
+      </c>
+      <c r="V5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="29">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="X5" s="40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="31">
+        <v>42500000000</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="29">
+        <v>42500000</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" s="29">
+        <v>42500</v>
+      </c>
+      <c r="V6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="W6" s="29">
+        <v>42.5</v>
+      </c>
+      <c r="X6" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="28">
+        <v>25100000000</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="34">
+        <v>25100000</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="34">
+        <v>25100</v>
+      </c>
+      <c r="V7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" s="34">
+        <v>25.1</v>
+      </c>
+      <c r="X7" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="33">
+        <v>74300000000</v>
+      </c>
+      <c r="R8" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="27">
+        <v>74300000</v>
+      </c>
+      <c r="T8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="27">
+        <v>74300</v>
+      </c>
+      <c r="V8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="W8" s="27">
+        <v>74.3</v>
+      </c>
+      <c r="X8" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="30">
+        <v>83200000000</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="29">
+        <v>83200000</v>
+      </c>
+      <c r="T9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="29">
+        <v>83200</v>
+      </c>
+      <c r="V9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="W9" s="29">
+        <v>83.2</v>
+      </c>
+      <c r="X9" s="40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L12" s="18"/>
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L13" s="17"/>
+      <c r="N13" s="44"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -2368,7 +2914,7 @@
       <selection activeCell="N13" sqref="N13:X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="8.6640625" style="1"/>
@@ -2387,7 +2933,7 @@
     <col min="24" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6">
         <v>1</v>
@@ -2450,7 +2996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="31.5" customHeight="1">
+    <row r="2" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -2517,7 +3063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="31.5" customHeight="1">
+    <row r="3" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2581,7 +3127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="31.5" customHeight="1">
+    <row r="4" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -2640,7 +3186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="31.5" customHeight="1">
+    <row r="5" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -2701,7 +3247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="31.5" customHeight="1">
+    <row r="6" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -2768,7 +3314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="31.5" customHeight="1">
+    <row r="7" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2831,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="31.5" customHeight="1">
+    <row r="8" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -2897,7 +3443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="31.5" customHeight="1">
+    <row r="9" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -2959,7 +3505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="31.5" customHeight="1">
+    <row r="10" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="2"/>
@@ -2978,14 +3524,14 @@
       <c r="P10" s="50"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L12" s="18"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L13" s="17"/>
       <c r="N13" s="44"/>
       <c r="O13" s="35" t="s">
@@ -3006,7 +3552,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="16">
+    <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="L14" s="18"/>
       <c r="N14" s="1" t="s">
         <v>63</v>
@@ -3043,7 +3589,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="16">
+    <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="L15" s="17"/>
       <c r="N15" s="1" t="s">
         <v>64</v>
@@ -3077,56 +3623,51 @@
         <v>88200</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="12:12" ht="31.5" customHeight="1">
+    <row r="17" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="12:12" ht="31.5" customHeight="1">
+    <row r="18" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="12:12" ht="31.5" customHeight="1">
+    <row r="19" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="12:12">
+    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="12:12">
+    <row r="21" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="12:12">
+    <row r="22" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="12:12">
+    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="12:12">
+    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="12:12">
+    <row r="25" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="12:12">
+    <row r="26" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="12:12">
+    <row r="27" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="12:12">
+    <row r="28" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="12:12">
+    <row r="29" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3138,7 +3679,7 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="1" customWidth="1"/>
@@ -3157,7 +3698,7 @@
     <col min="24" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6">
         <v>1</v>
@@ -3220,7 +3761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="31.5" customHeight="1">
+    <row r="2" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -3283,7 +3824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="31.5" customHeight="1">
+    <row r="3" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -3347,7 +3888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="31.5" customHeight="1">
+    <row r="4" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -3403,7 +3944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="31.5" customHeight="1">
+    <row r="5" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -3465,7 +4006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="31.5" customHeight="1">
+    <row r="6" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -3508,7 +4049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="31.5" customHeight="1">
+    <row r="7" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -3551,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="31.5" customHeight="1">
+    <row r="8" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -3593,7 +4134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="31.5" customHeight="1">
+    <row r="9" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -3635,7 +4176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="31.5" customHeight="1">
+    <row r="10" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49"/>
@@ -3653,73 +4194,68 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L12" s="18"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L13" s="17"/>
       <c r="N13" s="44"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L14" s="18"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="12:12" ht="31.5" customHeight="1">
+    <row r="17" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="12:12" ht="31.5" customHeight="1">
+    <row r="18" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="12:12" ht="31.5" customHeight="1">
+    <row r="19" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="12:12">
+    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="12:12">
+    <row r="21" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="12:12">
+    <row r="22" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="12:12">
+    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="12:12">
+    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="12:12">
+    <row r="25" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="12:12">
+    <row r="26" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="12:12">
+    <row r="27" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="12:12">
+    <row r="28" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="12:12">
+    <row r="29" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3731,7 +4267,7 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="1" customWidth="1"/>
@@ -3750,7 +4286,7 @@
     <col min="24" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6">
         <v>1</v>
@@ -3813,7 +4349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="31.5" customHeight="1">
+    <row r="2" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -3872,7 +4408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="31.5" customHeight="1">
+    <row r="3" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -3932,7 +4468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="31.5" customHeight="1">
+    <row r="4" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -3994,7 +4530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="31.5" customHeight="1">
+    <row r="5" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -4035,7 +4571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="31.5" customHeight="1">
+    <row r="6" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -4078,7 +4614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="31.5" customHeight="1">
+    <row r="7" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -4121,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="31.5" customHeight="1">
+    <row r="8" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -4163,7 +4699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="31.5" customHeight="1">
+    <row r="9" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -4205,7 +4741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="31.5" customHeight="1">
+    <row r="10" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49"/>
@@ -4223,73 +4759,68 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L12" s="18"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L13" s="17"/>
       <c r="N13" s="44"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L14" s="18"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="12:12" ht="31.5" customHeight="1">
+    <row r="17" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="12:12" ht="31.5" customHeight="1">
+    <row r="18" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="12:12" ht="31.5" customHeight="1">
+    <row r="19" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="12:12">
+    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="12:12">
+    <row r="21" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="12:12">
+    <row r="22" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="12:12">
+    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="12:12">
+    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="12:12">
+    <row r="25" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="12:12">
+    <row r="26" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="12:12">
+    <row r="27" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="12:12">
+    <row r="28" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="12:12">
+    <row r="29" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4301,23 +4832,23 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="54"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="53" t="s">
         <v>74</v>
       </c>
@@ -4345,7 +4876,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="16">
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>18</v>
       </c>
@@ -4383,7 +4914,7 @@
       </c>
       <c r="L3" s="35"/>
     </row>
-    <row r="4" spans="1:12" ht="16">
+    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>19</v>
       </c>
@@ -4428,11 +4959,6 @@
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4444,7 +4970,7 @@
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="1" customWidth="1"/>
@@ -4463,7 +4989,7 @@
     <col min="24" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6">
         <v>1</v>
@@ -4526,7 +5052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="31.5" customHeight="1">
+    <row r="2" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -4585,7 +5111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="31.5" customHeight="1">
+    <row r="3" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -4645,7 +5171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="31.5" customHeight="1">
+    <row r="4" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -4701,7 +5227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="31.5" customHeight="1">
+    <row r="5" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -4744,7 +5270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="31.5" customHeight="1">
+    <row r="6" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -4789,7 +5315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="31.5" customHeight="1">
+    <row r="7" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -4834,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="31.5" customHeight="1">
+    <row r="8" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -4878,7 +5404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="31.5" customHeight="1">
+    <row r="9" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -4922,7 +5448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="31.5" customHeight="1">
+    <row r="10" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49"/>
@@ -4942,73 +5468,68 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L12" s="18"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L13" s="17"/>
       <c r="N13" s="44"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L14" s="18"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="12:12" ht="31.5" customHeight="1">
+    <row r="17" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="12:12" ht="31.5" customHeight="1">
+    <row r="18" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="12:12" ht="31.5" customHeight="1">
+    <row r="19" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="12:12">
+    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="12:12">
+    <row r="21" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="12:12">
+    <row r="22" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="12:12">
+    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="12:12">
+    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="12:12">
+    <row r="25" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="12:12">
+    <row r="26" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="12:12">
+    <row r="27" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="12:12">
+    <row r="28" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="12:12">
+    <row r="29" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5020,7 +5541,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="1" customWidth="1"/>
@@ -5039,7 +5560,7 @@
     <col min="24" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6">
         <v>1</v>
@@ -5102,7 +5623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="31.5" customHeight="1">
+    <row r="2" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -5163,7 +5684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="31.5" customHeight="1">
+    <row r="3" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -5207,7 +5728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="31.5" customHeight="1">
+    <row r="4" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -5243,7 +5764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="31.5" customHeight="1">
+    <row r="5" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -5284,7 +5805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="31.5" customHeight="1">
+    <row r="6" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -5327,7 +5848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="31.5" customHeight="1">
+    <row r="7" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -5370,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="31.5" customHeight="1">
+    <row r="8" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -5412,7 +5933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="31.5" customHeight="1">
+    <row r="9" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -5454,7 +5975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="31.5" customHeight="1">
+    <row r="10" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49"/>
@@ -5472,73 +5993,68 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L12" s="18"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L13" s="17"/>
       <c r="N13" s="44"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L14" s="18"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="12:12" ht="31.5" customHeight="1">
+    <row r="17" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="12:12" ht="31.5" customHeight="1">
+    <row r="18" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="12:12" ht="31.5" customHeight="1">
+    <row r="19" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="12:12">
+    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="12:12">
+    <row r="21" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="12:12">
+    <row r="22" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="12:12">
+    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="12:12">
+    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="12:12">
+    <row r="25" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="12:12">
+    <row r="26" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="12:12">
+    <row r="27" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="12:12">
+    <row r="28" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="12:12">
+    <row r="29" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5550,7 +6066,7 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="1" customWidth="1"/>
@@ -5569,7 +6085,7 @@
     <col min="24" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="59"/>
       <c r="B1" s="61">
         <v>1</v>
@@ -5632,7 +6148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="31.5" customHeight="1">
+    <row r="2" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
         <v>3</v>
       </c>
@@ -5687,7 +6203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="31.5" customHeight="1">
+    <row r="3" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="60" t="s">
         <v>4</v>
       </c>
@@ -5749,7 +6265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="31.5" customHeight="1">
+    <row r="4" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="60" t="s">
         <v>5</v>
       </c>
@@ -5801,7 +6317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="31.5" customHeight="1">
+    <row r="5" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -5842,7 +6358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="31.5" customHeight="1">
+    <row r="6" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -5885,7 +6401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="31.5" customHeight="1">
+    <row r="7" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -5928,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="31.5" customHeight="1">
+    <row r="8" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -5970,7 +6486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="31.5" customHeight="1">
+    <row r="9" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -6012,7 +6528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="31.5" customHeight="1">
+    <row r="10" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49"/>
@@ -6030,73 +6546,68 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L12" s="18"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L13" s="17"/>
       <c r="N13" s="44"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L14" s="18"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="12:12" ht="31.5" customHeight="1">
+    <row r="17" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="12:12" ht="31.5" customHeight="1">
+    <row r="18" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="12:12" ht="31.5" customHeight="1">
+    <row r="19" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="12:12">
+    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="12:12">
+    <row r="21" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="12:12">
+    <row r="22" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="12:12">
+    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="12:12">
+    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="12:12">
+    <row r="25" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="12:12">
+    <row r="26" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="12:12">
+    <row r="27" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="12:12">
+    <row r="28" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="12:12">
+    <row r="29" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6104,11 +6615,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="A1:M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="6.83203125" style="1" customWidth="1"/>
@@ -6127,8 +6638,8 @@
     <col min="24" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="69"/>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="68"/>
       <c r="B1" s="59">
         <v>1</v>
       </c>
@@ -6190,8 +6701,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="31.5" customHeight="1">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="69" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -6245,8 +6756,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="31.5" customHeight="1">
-      <c r="A3" s="70" t="s">
+    <row r="3" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="69" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -6301,8 +6812,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="31.5" customHeight="1">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="69" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -6349,7 +6860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="31.5" customHeight="1">
+    <row r="5" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -6403,7 +6914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="31.5" customHeight="1">
+    <row r="6" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -6458,7 +6969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="31.5" customHeight="1">
+    <row r="7" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -6513,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="31.5" customHeight="1">
+    <row r="8" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -6560,7 +7071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="31.5" customHeight="1">
+    <row r="9" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -6602,29 +7113,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="31.5" customHeight="1">
+    <row r="10" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
-      <c r="B10" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="68" t="s">
-        <v>62</v>
-      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="67"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
       <c r="K10" s="12"/>
@@ -6634,72 +7131,67 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L12" s="18"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L13" s="17"/>
       <c r="N13" s="44"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L14" s="18"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="12:12" ht="31.5" customHeight="1">
+    <row r="17" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="12:12" ht="31.5" customHeight="1">
+    <row r="18" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="12:12" ht="31.5" customHeight="1">
+    <row r="19" spans="12:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="12:12">
+    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="12:12">
+    <row r="21" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="12:12">
+    <row r="22" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="12:12">
+    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="12:12">
+    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="12:12">
+    <row r="25" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="12:12">
+    <row r="26" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="12:12">
+    <row r="27" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="12:12">
+    <row r="28" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="12:12">
+    <row r="29" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Documents/qPCR_Setup_Files/Plate setup template for 1step qPCR.xlsx
+++ b/Documents/qPCR_Setup_Files/Plate setup template for 1step qPCR.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="93">
   <si>
     <t>DWV</t>
   </si>
@@ -617,10 +617,22 @@
     </r>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>G-block</t>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>Gblock</t>
+  </si>
+  <si>
+    <t>-7raw</t>
   </si>
 </sst>
 </file>
@@ -858,8 +870,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="245">
+  <cellStyleXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1286,7 +1300,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="245">
+  <cellStyles count="247">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1409,6 +1423,7 @@
     <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1531,6 +1546,7 @@
     <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2375,7 +2391,7 @@
   <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2467,11 +2483,21 @@
       <c r="B2" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -2511,12 +2537,24 @@
       <c r="A3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -2557,20 +2595,28 @@
       <c r="A4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="M4" s="9"/>
       <c r="N4" s="46" t="s">
         <v>0</v>
       </c>
@@ -2608,12 +2654,8 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="46" t="s">
-        <v>0</v>
-      </c>
+      <c r="M5" s="55"/>
+      <c r="N5" s="46"/>
       <c r="P5" s="31">
         <v>16600000000</v>
       </c>
@@ -2655,9 +2697,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="65" t="s">
-        <v>59</v>
-      </c>
+      <c r="N6" s="65"/>
       <c r="O6" s="2"/>
       <c r="P6" s="31">
         <v>42500000000</v>
@@ -2700,9 +2740,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="65" t="s">
-        <v>59</v>
-      </c>
+      <c r="N7" s="65"/>
       <c r="O7" s="2"/>
       <c r="P7" s="28">
         <v>25100000000</v>
@@ -2744,12 +2782,8 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="N8" s="65" t="s">
-        <v>59</v>
-      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="65"/>
       <c r="O8" s="2"/>
       <c r="P8" s="33">
         <v>74300000000</v>
@@ -2791,12 +2825,8 @@
       <c r="J9" s="45"/>
       <c r="K9" s="45"/>
       <c r="L9" s="45"/>
-      <c r="M9" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="N9" s="65" t="s">
-        <v>59</v>
-      </c>
+      <c r="M9" s="55"/>
+      <c r="N9" s="65"/>
       <c r="O9" s="2"/>
       <c r="P9" s="30">
         <v>83200000000</v>
